--- a/CSmajorGPA.xlsx
+++ b/CSmajorGPA.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -402,7 +402,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -423,8 +423,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <f>C3*D3</f>
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -464,11 +463,11 @@
       </c>
       <c r="E6">
         <f>SUM(E3:E5)</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <f>E6/D6</f>
-        <v>3.5681818181818183</v>
+        <v>3.6136363636363638</v>
       </c>
     </row>
   </sheetData>
